--- a/GATEWAY/A1#111#FEDSTUDIOSXX/FEDSTUDIOS_DI_DEBORAH_BARATELLI/HISTOSOFT/4.1.9/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111#FEDSTUDIOSXX/FEDSTUDIOS_DI_DEBORAH_BARATELLI/HISTOSOFT/4.1.9/accreditamento-checklist_V8.2.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Il mio Drive\Histosoft\Assistenza tecnica specialistica\FSE\testcase\PULL REQUEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7ED7AD1-C97C-455D-9ACC-EB129F3FB64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A07515-2477-4432-8129-8E482CC4B1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$192</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1704,15 +1703,6 @@
     <t>subject_application_id: HISTOSOFT</t>
   </si>
   <si>
-    <t>19fe821fd5b953136bc8637818b12d0b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.fd36d988526ef64201d0d58ad6970cebd7a492e7e7017012a6cc9dc09241b330.6bb9c90c6b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-07-31T11:52:21Z</t>
-  </si>
-  <si>
     <t>2025-07-31T12:18:58Z</t>
   </si>
   <si>
@@ -1870,6 +1860,15 @@
   </si>
   <si>
     <t>ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":languageCode}'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.</t>
+  </si>
+  <si>
+    <t>2025-08-22T15:16:03Z</t>
+  </si>
+  <si>
+    <t>9d46327ba6e3a5066458c847de9c5aba</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.d33d4abfd60f3d582ef5d2065b5ba8a8d39cdd972d90e827c017bc4427e2237a.5fa4c6ed6c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3969,10 +3968,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A148" sqref="A148:J187"/>
+      <selection pane="bottomRight" activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9398,16 +9397,16 @@
         <v>293</v>
       </c>
       <c r="F148" s="37">
-        <v>45869</v>
+        <v>45891</v>
       </c>
       <c r="G148" s="37" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="H148" s="37" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="I148" s="42" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="J148" s="38" t="s">
         <v>64</v>
@@ -9448,13 +9447,13 @@
         <v>45869</v>
       </c>
       <c r="G149" s="45" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H149" s="37" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I149" s="42" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J149" s="38" t="s">
         <v>64</v>
@@ -9495,13 +9494,13 @@
         <v>45869</v>
       </c>
       <c r="G150" s="37" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H150" s="37" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I150" s="42" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J150" s="38" t="s">
         <v>64</v>
@@ -9542,13 +9541,13 @@
         <v>45869</v>
       </c>
       <c r="G151" s="37" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H151" s="37" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I151" s="42" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J151" s="38" t="s">
         <v>64</v>
@@ -9562,7 +9561,7 @@
         <v>64</v>
       </c>
       <c r="O151" s="38" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="P151" s="38" t="s">
         <v>64</v>
@@ -9574,7 +9573,7 @@
         <v>64</v>
       </c>
       <c r="S151" s="38" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="T151" s="38"/>
       <c r="U151" s="39"/>
@@ -9603,13 +9602,13 @@
         <v>45869</v>
       </c>
       <c r="G152" s="37" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H152" s="37" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I152" s="42" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J152" s="38" t="s">
         <v>64</v>
@@ -9623,7 +9622,7 @@
         <v>64</v>
       </c>
       <c r="O152" s="38" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="P152" s="38" t="s">
         <v>64</v>
@@ -9635,7 +9634,7 @@
         <v>64</v>
       </c>
       <c r="S152" s="38" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="T152" s="38"/>
       <c r="U152" s="39"/>
@@ -9678,7 +9677,7 @@
         <v>64</v>
       </c>
       <c r="O153" s="38" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="P153" s="38" t="s">
         <v>64</v>
@@ -9690,7 +9689,7 @@
         <v>64</v>
       </c>
       <c r="S153" s="38" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="T153" s="38"/>
       <c r="U153" s="39"/>
@@ -9764,7 +9763,7 @@
         <v>228</v>
       </c>
       <c r="K155" s="38" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L155" s="38"/>
       <c r="M155" s="38"/>
@@ -9842,13 +9841,13 @@
         <v>45869</v>
       </c>
       <c r="G157" s="37" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H157" s="37" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I157" s="42" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J157" s="38" t="s">
         <v>64</v>
@@ -9862,7 +9861,7 @@
         <v>64</v>
       </c>
       <c r="O157" s="38" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="P157" s="38" t="s">
         <v>64</v>
@@ -9874,7 +9873,7 @@
         <v>64</v>
       </c>
       <c r="S157" s="38" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="T157" s="38"/>
       <c r="U157" s="39"/>
@@ -9903,13 +9902,13 @@
         <v>45869</v>
       </c>
       <c r="G158" s="37" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H158" s="37" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I158" s="42" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J158" s="38" t="s">
         <v>64</v>
@@ -9923,7 +9922,7 @@
         <v>64</v>
       </c>
       <c r="O158" s="38" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P158" s="38" t="s">
         <v>64</v>
@@ -9935,7 +9934,7 @@
         <v>64</v>
       </c>
       <c r="S158" s="38" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="T158" s="38"/>
       <c r="U158" s="39"/>
@@ -9964,13 +9963,13 @@
         <v>45869</v>
       </c>
       <c r="G159" s="46" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H159" s="37" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I159" s="42" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J159" s="38" t="s">
         <v>64</v>
@@ -9984,7 +9983,7 @@
         <v>64</v>
       </c>
       <c r="O159" s="38" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="P159" s="38" t="s">
         <v>64</v>
@@ -9996,7 +9995,7 @@
         <v>64</v>
       </c>
       <c r="S159" s="38" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="T159" s="38"/>
       <c r="U159" s="39"/>
@@ -10022,16 +10021,16 @@
         <v>277</v>
       </c>
       <c r="F160" s="37" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G160" s="37" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H160" s="37" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I160" s="42" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J160" s="38" t="s">
         <v>64</v>
@@ -10045,7 +10044,7 @@
         <v>64</v>
       </c>
       <c r="O160" s="38" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P160" s="38" t="s">
         <v>64</v>
@@ -10057,7 +10056,7 @@
         <v>64</v>
       </c>
       <c r="S160" s="38" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="T160" s="38"/>
       <c r="U160" s="39"/>
@@ -10083,16 +10082,16 @@
         <v>278</v>
       </c>
       <c r="F161" s="37" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G161" s="37" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H161" s="37" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I161" s="42" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J161" s="38" t="s">
         <v>64</v>
@@ -10106,7 +10105,7 @@
         <v>64</v>
       </c>
       <c r="O161" s="38" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P161" s="38" t="s">
         <v>64</v>
@@ -10118,7 +10117,7 @@
         <v>64</v>
       </c>
       <c r="S161" s="38" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="T161" s="38"/>
       <c r="U161" s="39"/>
@@ -10144,16 +10143,16 @@
         <v>270</v>
       </c>
       <c r="F162" s="37" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G162" s="37" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H162" s="37" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I162" s="42" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J162" s="38" t="s">
         <v>64</v>
@@ -10167,7 +10166,7 @@
         <v>64</v>
       </c>
       <c r="O162" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="P162" s="38" t="s">
         <v>64</v>
@@ -10179,7 +10178,7 @@
         <v>64</v>
       </c>
       <c r="S162" s="38" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="T162" s="38"/>
       <c r="U162" s="39"/>
@@ -10208,13 +10207,13 @@
         <v>45869</v>
       </c>
       <c r="G163" s="37" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H163" s="37" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I163" s="42" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J163" s="38" t="s">
         <v>64</v>
@@ -10228,7 +10227,7 @@
         <v>64</v>
       </c>
       <c r="O163" s="38" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="P163" s="38" t="s">
         <v>64</v>
@@ -10240,7 +10239,7 @@
         <v>64</v>
       </c>
       <c r="S163" s="38" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="T163" s="38"/>
       <c r="U163" s="39"/>
@@ -10750,13 +10749,13 @@
         <v>45869</v>
       </c>
       <c r="G177" s="37" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H177" s="37" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I177" s="42" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J177" s="38" t="s">
         <v>64</v>
@@ -11130,13 +11129,13 @@
         <v>45869</v>
       </c>
       <c r="G187" s="35" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H187" s="35" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I187" s="47" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="J187" s="38" t="s">
         <v>64</v>
@@ -11150,7 +11149,7 @@
         <v>64</v>
       </c>
       <c r="O187" s="38" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="P187" s="38" t="s">
         <v>64</v>
@@ -11162,7 +11161,7 @@
         <v>64</v>
       </c>
       <c r="S187" s="38" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="T187" s="38"/>
       <c r="U187" s="35"/>
@@ -17675,15 +17674,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17941,6 +17931,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
@@ -17959,14 +17958,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17985,6 +17976,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#FEDSTUDIOSXX/FEDSTUDIOS_DI_DEBORAH_BARATELLI/HISTOSOFT/4.1.9/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111#FEDSTUDIOSXX/FEDSTUDIOS_DI_DEBORAH_BARATELLI/HISTOSOFT/4.1.9/accreditamento-checklist_V8.2.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Il mio Drive\Histosoft\Assistenza tecnica specialistica\FSE\testcase\PULL REQUEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A07515-2477-4432-8129-8E482CC4B1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB3B8D0-6B4F-4AEF-82E6-1FB5837FB489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1862,13 +1862,14 @@
     <t>ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":languageCode}'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.</t>
   </si>
   <si>
-    <t>2025-08-22T15:16:03Z</t>
-  </si>
-  <si>
-    <t>9d46327ba6e3a5066458c847de9c5aba</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.d33d4abfd60f3d582ef5d2065b5ba8a8d39cdd972d90e827c017bc4427e2237a.5fa4c6ed6c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-08-25T20:39:11Z
+</t>
+  </si>
+  <si>
+    <t>b3fc3ade212250140fc376c4dd08a6cd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.06bad9e9549f179692a21edc41ccb60f4931fa05a9842145dfd267973208024c.cf011a4518^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3968,10 +3969,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G148" sqref="G148"/>
+      <selection pane="bottomRight" activeCell="K148" sqref="K148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9397,7 +9398,7 @@
         <v>293</v>
       </c>
       <c r="F148" s="37">
-        <v>45891</v>
+        <v>45894</v>
       </c>
       <c r="G148" s="37" t="s">
         <v>493</v>
